--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_261.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_261.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,684 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1979813664596273</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:min', 'E:min/b7', 'C', 'D', 'G'], ['E:min/b7', 'C', 'D', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C#:min', 'C#:min/b7', 'A', 'B', 'E'], ['C#:min', 'A', 'B', 'E', 'E/7']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(107.586031, 113.30975), (108.723809, 114.482358)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(13.148866, 23.028956), (6.658888, 13.148866)]</t>
+          <t>[('0:00:43.180000', '0:00:45.100000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1405405405405405</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(43.38, 45.8)]</t>
+          <t>[['C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(18.24, 29.1)]</t>
+          <t>[('0:00:07.700000', '0:00:12.060000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:01.129708', '0:00:06.125260')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(7.4, 18.24)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[('0:00:00.280000', '0:01:43.400000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:01.660000', '0:01:37')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_81</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.425</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(8.34, 16.5)]</t>
+          <t>[['B', 'E/5', 'B']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(18.3, 21.32)]</t>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:58.625147', '0:01:04.604285')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(24.64, 36.02)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(53.28, 65.12)]</t>
+          <t>[('0:00:41.580000', '0:00:43.480000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:00.360000', '0:00:05')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(46.22, 48.94)]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(16.72, 26.46)]</t>
+          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:09.780000', '0:00:14.360000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(36.4, 41.7)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(29.5, 31.64)]</t>
+          <t>[('0:00:00.800000', '0:00:10.540000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:25.260000', '0:00:45.540000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(5.68, 9.64)]</t>
+          <t>[('0:01:10.980000', '0:01:27.200000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02), (27.36, 34.92)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(2.56, 4.8), (0.3, 3.34)]</t>
+          <t>[('0:01:03.840000', '0:01:05.240000'), ('0:01:02.200000', '0:01:04.400000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:01.640000', '0:00:09.940000'), ('0:00:59.220000', '0:01:06.880000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(43.12, 59.64)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(9.48, 33.68)]</t>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(96.06, 107.42)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(37.54, 45.38)]</t>
+          <t>[('0:02:04.920000', '0:02:09.320000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84)]</t>
+          <t>[('0:00:00.620000', '0:00:26.600000'), ('0:01:10.160000', '0:01:36.100000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:00.720000', '0:00:20.920000'), ('0:00:49.740000', '0:01:09.800000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_100</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D', 'A']]</t>
+          <t>[['A:min', 'E:7/A', 'E:(3,5,b7,b9)/A', 'A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(114.52, 115.98)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(27.963197, 36.229501)]</t>
+          <t>[('0:00:14.460000', '0:00:46.680000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>[('0:00:12.440000', '0:00:38.460000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(17.9, 20.7)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(9.24, 17.72)]</t>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(42.88, 45.1)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(15.94, 24.9)]</t>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(9.64, 22.68), (66.22, 72.3)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(16.26, 21.14), (36.6, 39.0)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
